--- a/文档说明/tms权限.xlsx
+++ b/文档说明/tms权限.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\chbtms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\chbtms\文档说明\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="104">
   <si>
     <t>运单管理</t>
   </si>
@@ -359,6 +359,10 @@
   </si>
   <si>
     <t>办事处中转核销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -410,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +424,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -464,6 +474,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -748,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1025,36 +1038,36 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>61</v>
+      <c r="D17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="D18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1067,24 +1080,24 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1097,34 +1110,34 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+      <c r="A23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="A24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+      <c r="A25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1135,10 +1148,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+      <c r="A27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="9" t="s">
         <v>27</v>
       </c>
     </row>
